--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.396148981586282</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H2">
-        <v>0.396148981586282</v>
+        <v>7.725334</v>
       </c>
       <c r="I2">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J2">
-        <v>0.0005637652031628171</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N2">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q2">
-        <v>0.3606614446266487</v>
+        <v>0.2650630765035556</v>
       </c>
       <c r="R2">
-        <v>0.3606614446266487</v>
+        <v>2.385567688532</v>
       </c>
       <c r="S2">
-        <v>0.0005637652031628171</v>
+        <v>0.0002168808359801741</v>
       </c>
       <c r="T2">
-        <v>0.0005637652031628171</v>
+        <v>0.0002168808359801741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>366.39644442293</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H3">
-        <v>366.39644442293</v>
+        <v>7.725334</v>
       </c>
       <c r="I3">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J3">
-        <v>0.521423947882187</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.910418709603816</v>
+        <v>0.24544</v>
       </c>
       <c r="N3">
-        <v>0.910418709603816</v>
+        <v>0.73632</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="Q3">
-        <v>333.5741781349502</v>
+        <v>0.6320353256533333</v>
       </c>
       <c r="R3">
-        <v>333.5741781349502</v>
+        <v>5.68831793088</v>
       </c>
       <c r="S3">
-        <v>0.521423947882187</v>
+        <v>0.0005171461510402326</v>
       </c>
       <c r="T3">
-        <v>0.521423947882187</v>
+        <v>0.0005171461510402327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>115.440029325556</v>
+        <v>2.575111333333334</v>
       </c>
       <c r="H4">
-        <v>115.440029325556</v>
+        <v>7.725334</v>
       </c>
       <c r="I4">
-        <v>0.1642843339524498</v>
+        <v>0.002862529524196255</v>
       </c>
       <c r="J4">
-        <v>0.1642843339524498</v>
+        <v>0.002862529524196256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.910418709603816</v>
+        <v>1.010197333333333</v>
       </c>
       <c r="N4">
-        <v>0.910418709603816</v>
+        <v>3.030592</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="Q4">
-        <v>105.0987625351994</v>
+        <v>2.601370601969778</v>
       </c>
       <c r="R4">
-        <v>105.0987625351994</v>
+        <v>23.412335417728</v>
       </c>
       <c r="S4">
-        <v>0.1642843339524498</v>
+        <v>0.002128502537175849</v>
       </c>
       <c r="T4">
-        <v>0.1642843339524498</v>
+        <v>0.002128502537175849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>94.5737157357929</v>
+        <v>378.538676</v>
       </c>
       <c r="H5">
-        <v>94.5737157357929</v>
+        <v>1135.616028</v>
       </c>
       <c r="I5">
-        <v>0.1345891887747771</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J5">
-        <v>0.1345891887747771</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.910418709603816</v>
+        <v>0.1029326666666667</v>
       </c>
       <c r="N5">
-        <v>0.910418709603816</v>
+        <v>0.308798</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.0757654494554323</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.07576544945543232</v>
       </c>
       <c r="Q5">
-        <v>86.10168024261868</v>
+        <v>38.96399535714933</v>
       </c>
       <c r="R5">
-        <v>86.10168024261868</v>
+        <v>350.675958214344</v>
       </c>
       <c r="S5">
-        <v>0.1345891887747771</v>
+        <v>0.03188125633210483</v>
       </c>
       <c r="T5">
-        <v>0.1345891887747771</v>
+        <v>0.03188125633210484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>119.244640755233</v>
+        <v>378.538676</v>
       </c>
       <c r="H6">
-        <v>119.244640755233</v>
+        <v>1135.616028</v>
       </c>
       <c r="I6">
-        <v>0.169698730140012</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J6">
-        <v>0.169698730140012</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.910418709603816</v>
+        <v>0.24544</v>
       </c>
       <c r="N6">
-        <v>0.910418709603816</v>
+        <v>0.73632</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1806605474874316</v>
       </c>
       <c r="Q6">
-        <v>108.5625519635498</v>
+        <v>92.90853263743999</v>
       </c>
       <c r="R6">
-        <v>108.5625519635498</v>
+        <v>836.1767937369599</v>
       </c>
       <c r="S6">
-        <v>0.169698730140012</v>
+        <v>0.07601994398427266</v>
       </c>
       <c r="T6">
-        <v>0.169698730140012</v>
+        <v>0.07601994398427266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.63336412577723</v>
+        <v>378.538676</v>
       </c>
       <c r="H7">
-        <v>6.63336412577723</v>
+        <v>1135.616028</v>
       </c>
       <c r="I7">
-        <v>0.00944003404741112</v>
+        <v>0.4207888498154877</v>
       </c>
       <c r="J7">
-        <v>0.00944003404741112</v>
+        <v>0.4207888498154878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.910418709603816</v>
+        <v>1.010197333333333</v>
       </c>
       <c r="N7">
-        <v>0.910418709603816</v>
+        <v>3.030592</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.7435740030571361</v>
       </c>
       <c r="Q7">
-        <v>6.039138807722351</v>
+        <v>382.3987610587307</v>
       </c>
       <c r="R7">
-        <v>6.039138807722351</v>
+        <v>3441.588849528576</v>
       </c>
       <c r="S7">
-        <v>0.00944003404741112</v>
+        <v>0.3128876494991102</v>
       </c>
       <c r="T7">
-        <v>0.00944003404741112</v>
+        <v>0.3128876494991102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>280.8555153333334</v>
+      </c>
+      <c r="H8">
+        <v>842.566546</v>
+      </c>
+      <c r="I8">
+        <v>0.312202891684044</v>
+      </c>
+      <c r="J8">
+        <v>0.312202891684044</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.308798</v>
+      </c>
+      <c r="O8">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P8">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q8">
+        <v>28.90920714130089</v>
+      </c>
+      <c r="R8">
+        <v>260.182864271708</v>
+      </c>
+      <c r="S8">
+        <v>0.02365419240972724</v>
+      </c>
+      <c r="T8">
+        <v>0.02365419240972725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>280.8555153333334</v>
+      </c>
+      <c r="H9">
+        <v>842.566546</v>
+      </c>
+      <c r="I9">
+        <v>0.312202891684044</v>
+      </c>
+      <c r="J9">
+        <v>0.312202891684044</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.24544</v>
+      </c>
+      <c r="N9">
+        <v>0.73632</v>
+      </c>
+      <c r="O9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P9">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q9">
+        <v>68.93317768341333</v>
+      </c>
+      <c r="R9">
+        <v>620.39859915072</v>
+      </c>
+      <c r="S9">
+        <v>0.05640274533879871</v>
+      </c>
+      <c r="T9">
+        <v>0.05640274533879871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>280.8555153333334</v>
+      </c>
+      <c r="H10">
+        <v>842.566546</v>
+      </c>
+      <c r="I10">
+        <v>0.312202891684044</v>
+      </c>
+      <c r="J10">
+        <v>0.312202891684044</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.030592</v>
+      </c>
+      <c r="O10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P10">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q10">
+        <v>283.7194926416925</v>
+      </c>
+      <c r="R10">
+        <v>2553.475433775232</v>
+      </c>
+      <c r="S10">
+        <v>0.2321459539355181</v>
+      </c>
+      <c r="T10">
+        <v>0.2321459539355181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>98.90178066666668</v>
+      </c>
+      <c r="H11">
+        <v>296.705342</v>
+      </c>
+      <c r="I11">
+        <v>0.1099405930490186</v>
+      </c>
+      <c r="J11">
+        <v>0.1099405930490186</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.308798</v>
+      </c>
+      <c r="O11">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P11">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q11">
+        <v>10.18022402210178</v>
+      </c>
+      <c r="R11">
+        <v>91.62201619891601</v>
+      </c>
+      <c r="S11">
+        <v>0.008329698445755674</v>
+      </c>
+      <c r="T11">
+        <v>0.008329698445755675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>98.90178066666668</v>
+      </c>
+      <c r="H12">
+        <v>296.705342</v>
+      </c>
+      <c r="I12">
+        <v>0.1099405930490186</v>
+      </c>
+      <c r="J12">
+        <v>0.1099405930490186</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.24544</v>
+      </c>
+      <c r="N12">
+        <v>0.73632</v>
+      </c>
+      <c r="O12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P12">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q12">
+        <v>24.27445304682667</v>
+      </c>
+      <c r="R12">
+        <v>218.47007742144</v>
+      </c>
+      <c r="S12">
+        <v>0.01986192773132863</v>
+      </c>
+      <c r="T12">
+        <v>0.01986192773132863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>98.90178066666668</v>
+      </c>
+      <c r="H13">
+        <v>296.705342</v>
+      </c>
+      <c r="I13">
+        <v>0.1099405930490186</v>
+      </c>
+      <c r="J13">
+        <v>0.1099405930490186</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.030592</v>
+      </c>
+      <c r="O13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P13">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q13">
+        <v>99.91031509138492</v>
+      </c>
+      <c r="R13">
+        <v>899.1928358224641</v>
+      </c>
+      <c r="S13">
+        <v>0.08174896687193434</v>
+      </c>
+      <c r="T13">
+        <v>0.08174896687193434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H14">
+        <v>396.238258</v>
+      </c>
+      <c r="I14">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J14">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.308798</v>
+      </c>
+      <c r="O14">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P14">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q14">
+        <v>13.59528684376489</v>
+      </c>
+      <c r="R14">
+        <v>122.357581593884</v>
+      </c>
+      <c r="S14">
+        <v>0.01112398307210638</v>
+      </c>
+      <c r="T14">
+        <v>0.01112398307210639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H15">
+        <v>396.238258</v>
+      </c>
+      <c r="I15">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J15">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.24544</v>
+      </c>
+      <c r="N15">
+        <v>0.73632</v>
+      </c>
+      <c r="O15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P15">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q15">
+        <v>32.41757268117333</v>
+      </c>
+      <c r="R15">
+        <v>291.75815413056</v>
+      </c>
+      <c r="S15">
+        <v>0.02652481951195724</v>
+      </c>
+      <c r="T15">
+        <v>0.02652481951195725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>132.0794193333333</v>
+      </c>
+      <c r="H16">
+        <v>396.238258</v>
+      </c>
+      <c r="I16">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="J16">
+        <v>0.1468213169995101</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.030592</v>
+      </c>
+      <c r="O16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P16">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q16">
+        <v>133.4262771987485</v>
+      </c>
+      <c r="R16">
+        <v>1200.836494788736</v>
+      </c>
+      <c r="S16">
+        <v>0.1091725144154464</v>
+      </c>
+      <c r="T16">
+        <v>0.1091725144154465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H17">
+        <v>19.927294</v>
+      </c>
+      <c r="I17">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J17">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1029326666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.308798</v>
+      </c>
+      <c r="O17">
+        <v>0.0757654494554323</v>
+      </c>
+      <c r="P17">
+        <v>0.07576544945543232</v>
+      </c>
+      <c r="Q17">
+        <v>0.6837231702902223</v>
+      </c>
+      <c r="R17">
+        <v>6.153508532612</v>
+      </c>
+      <c r="S17">
+        <v>0.0005594383597579996</v>
+      </c>
+      <c r="T17">
+        <v>0.0005594383597579999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H18">
+        <v>19.927294</v>
+      </c>
+      <c r="I18">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J18">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.24544</v>
+      </c>
+      <c r="N18">
+        <v>0.73632</v>
+      </c>
+      <c r="O18">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="P18">
+        <v>0.1806605474874316</v>
+      </c>
+      <c r="Q18">
+        <v>1.630318346453333</v>
+      </c>
+      <c r="R18">
+        <v>14.67286511808</v>
+      </c>
+      <c r="S18">
+        <v>0.001333964770034166</v>
+      </c>
+      <c r="T18">
+        <v>0.001333964770034166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.642431333333334</v>
+      </c>
+      <c r="H19">
+        <v>19.927294</v>
+      </c>
+      <c r="I19">
+        <v>0.007383818927743304</v>
+      </c>
+      <c r="J19">
+        <v>0.007383818927743305</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.010197333333333</v>
+      </c>
+      <c r="N19">
+        <v>3.030592</v>
+      </c>
+      <c r="O19">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="P19">
+        <v>0.7435740030571361</v>
+      </c>
+      <c r="Q19">
+        <v>6.710166419783111</v>
+      </c>
+      <c r="R19">
+        <v>60.391497778048</v>
+      </c>
+      <c r="S19">
+        <v>0.005490415797951139</v>
+      </c>
+      <c r="T19">
+        <v>0.005490415797951139</v>
       </c>
     </row>
   </sheetData>
